--- a/rfuse/rfuse_busy_2_summary.xlsx
+++ b/rfuse/rfuse_busy_2_summary.xlsx
@@ -446,19 +446,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>3984</v>
+        <v>4284</v>
       </c>
       <c r="C3" s="3">
-        <v>8359</v>
+        <v>9990</v>
       </c>
       <c r="D3" s="3">
-        <v>15500</v>
+        <v>16900</v>
       </c>
       <c r="E3" s="3">
-        <v>28700</v>
+        <v>27000</v>
       </c>
       <c r="F3" s="3">
-        <v>39600</v>
+        <v>36500</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -493,19 +493,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>9109</v>
+        <v>9893</v>
       </c>
       <c r="C8" s="3">
-        <v>20200</v>
+        <v>21100</v>
       </c>
       <c r="D8" s="3">
-        <v>46600</v>
+        <v>43300</v>
       </c>
       <c r="E8" s="3">
-        <v>92200</v>
+        <v>83400</v>
       </c>
       <c r="F8" s="3">
-        <v>172000</v>
+        <v>158000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -540,19 +540,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>4129</v>
+        <v>4551</v>
       </c>
       <c r="C13" s="3">
-        <v>6585</v>
+        <v>7420</v>
       </c>
       <c r="D13" s="3">
-        <v>7816</v>
+        <v>8696</v>
       </c>
       <c r="E13" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="F13" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -587,19 +587,19 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>20500</v>
+        <v>27400</v>
       </c>
       <c r="C18" s="3">
-        <v>48400</v>
+        <v>62500</v>
       </c>
       <c r="D18" s="3">
-        <v>93800</v>
+        <v>89700</v>
       </c>
       <c r="E18" s="3">
-        <v>106000</v>
+        <v>108000</v>
       </c>
       <c r="F18" s="3">
-        <v>142000</v>
+        <v>162000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -634,19 +634,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>7111</v>
+        <v>8533</v>
       </c>
       <c r="C23" s="3">
-        <v>13500</v>
+        <v>12400</v>
       </c>
       <c r="D23" s="3">
-        <v>20200</v>
+        <v>21400</v>
       </c>
       <c r="E23" s="3">
-        <v>31000</v>
+        <v>28100</v>
       </c>
       <c r="F23" s="3">
-        <v>32000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -681,19 +681,19 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>67400</v>
+        <v>169000</v>
       </c>
       <c r="C28" s="3">
-        <v>417000</v>
+        <v>437000</v>
       </c>
       <c r="D28" s="3">
         <v>683000</v>
       </c>
       <c r="E28" s="3">
-        <v>946000</v>
+        <v>846000</v>
       </c>
       <c r="F28" s="3">
-        <v>1001000</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -728,19 +728,19 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>2449</v>
+        <v>2852</v>
       </c>
       <c r="C33" s="3">
-        <v>5305</v>
+        <v>4452</v>
       </c>
       <c r="D33" s="3">
-        <v>6671</v>
+        <v>6491</v>
       </c>
       <c r="E33" s="3">
-        <v>7420</v>
+        <v>7627</v>
       </c>
       <c r="F33" s="3">
-        <v>8928</v>
+        <v>8055</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -775,19 +775,19 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>23700</v>
+        <v>17800</v>
       </c>
       <c r="C38" s="3">
-        <v>29000</v>
+        <v>30600</v>
       </c>
       <c r="D38" s="3">
-        <v>74100</v>
+        <v>71800</v>
       </c>
       <c r="E38" s="3">
-        <v>143000</v>
+        <v>112000</v>
       </c>
       <c r="F38" s="3">
-        <v>136000</v>
+        <v>130000</v>
       </c>
     </row>
   </sheetData>
